--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_1_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_1_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.76000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.515662832252773e-16</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1.558207753859869e-16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.470267476287734</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>46.31461053149706</v>
+        <v>49.63182065922913</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[43.27081368525281, 49.35840737774131]</t>
+          <t>[46.7509407794014, 52.51270053905687]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +601,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.66671081721981</v>
+        <v>1.578658170272348</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.591237119836272, 1.7421845146033483]</t>
+          <t>[1.515763422452732, 1.6415529180919641]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +615,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>50.96969735309958</v>
+        <v>53.11879401434737</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[49.01626233448668, 52.92313237171247]</t>
+          <t>[51.12561397402223, 55.111974054672515]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +629,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.72256256256265</v>
+        <v>17.03403403403412</v>
       </c>
       <c r="X2" t="n">
-        <v>16.44916916916926</v>
+        <v>16.80630630630639</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.99595595595605</v>
+        <v>17.26176176176185</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.62000000000057</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +663,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.515662832252773e-16</v>
+        <v>1.558207753859869e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>46.68116483262795</v>
+        <v>45.70063980698307</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[42.90943476843472, 50.45289489682118]</t>
+          <t>[42.50055507014571, 48.90072454382043]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,25 +682,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.4402632347373086</v>
+        <v>-0.08805264694746207</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.5157369321208476, -0.3647895373537695]</t>
+          <t>[-0.1635263443310011, -0.012578949563923025]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.02237988394610957</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.02237988394610957</v>
       </c>
       <c r="S3" t="n">
-        <v>51.27410362442946</v>
+        <v>51.15535660246078</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.21161465461594, 53.33659259424297]</t>
+          <t>[49.060406113355334, 53.250307091566235]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.795195195195237</v>
+        <v>0.3619819819819945</v>
       </c>
       <c r="X3" t="n">
-        <v>1.487447447447481</v>
+        <v>0.05171171171171512</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.102942942942994</v>
+        <v>0.6722522522522738</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_1_sine_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_10/cosinor_1_sine_10_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.75000000000012</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,18 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.558207753859869e-16</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.470267476287734</v>
-      </c>
+        <v>1.528706402237737e-16</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>49.63182065922913</v>
+        <v>49.39521506746809</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[46.7509407794014, 52.51270053905687]</t>
+          <t>[46.436228402410414, 52.35420173252576]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -601,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.578658170272348</v>
+        <v>1.616395018964118</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.515763422452732, 1.6415529180919641]</t>
+          <t>[1.5535002711445038, 1.6792897667837323]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -615,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.11879401434737</v>
+        <v>51.65550917371711</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.12561397402223, 55.111974054672515]</t>
+          <t>[49.665046430174016, 53.6459719172602]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -629,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.03403403403412</v>
+        <v>16.91225225225234</v>
       </c>
       <c r="X2" t="n">
-        <v>16.80630630630639</v>
+        <v>16.68432432432441</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.26176176176185</v>
+        <v>17.14018018018027</v>
       </c>
     </row>
     <row r="3">
@@ -654,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8300000000006</v>
+        <v>25.68000000000058</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -663,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.558207753859869e-16</v>
+        <v>1.528706402237737e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>45.70063980698307</v>
+        <v>47.24349481821277</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[42.50055507014571, 48.90072454382043]</t>
+          <t>[43.5961093850342, 50.89088025139134]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,25 +680,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.08805264694746207</v>
+        <v>-0.3018947895341544</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-0.1635263443310011, -0.012578949563923025]</t>
+          <t>[-0.3773684869176934, -0.22642109215061534]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.02237988394610957</v>
+        <v>7.283063041541027e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>0.02237988394610957</v>
+        <v>7.283063041541027e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>51.15535660246078</v>
+        <v>50.23677740209224</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.060406113355334, 53.250307091566235]</t>
+          <t>[48.1298039207199, 52.34375088346457]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3619819819819945</v>
+        <v>1.2338738738739</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05171171171171512</v>
+        <v>0.925405405405423</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.6722522522522738</v>
+        <v>1.542342342342378</v>
       </c>
     </row>
   </sheetData>
